--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/88_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/88_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="Reeac57a5e8254ab6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R1898e46bbfc34f04"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/88_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/88_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R1898e46bbfc34f04"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R38e0ae23ce6f47ff"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>

--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/88_ConditionalHiding.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/88_ConditionalHiding.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R38e0ae23ce6f47ff"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ConditionalHiding" sheetId="1" r:id="R8bd37ed462314230"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
